--- a/Project/Assets/LocalizationDB.xlsx
+++ b/Project/Assets/LocalizationDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Projects\ARN\trunk\Project\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ARN\trunk\Project\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="461" documentId="144229E661477C8E8880BFAD9AB13B5AD3C93D1E" xr6:coauthVersionLast="19" xr6:coauthVersionMax="19" xr10:uidLastSave="{92CAB53B-9D65-417B-B643-E51226B89294}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1261,8 +1260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,7 +1420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,6 +1439,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1473,9 +1478,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1780,14 +1782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" customWidth="1"/>
@@ -1799,74 +1801,74 @@
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="10"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1876,24 +1878,24 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1903,24 +1905,24 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1930,24 +1932,24 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>122</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1957,24 +1959,24 @@
       <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -1984,24 +1986,24 @@
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -2011,24 +2013,24 @@
       <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -2038,22 +2040,22 @@
       <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -2063,22 +2065,22 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -2088,22 +2090,22 @@
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
@@ -2113,22 +2115,22 @@
       <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -2138,22 +2140,22 @@
       <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -2163,22 +2165,22 @@
       <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -2188,22 +2190,22 @@
       <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -2213,22 +2215,22 @@
       <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -2238,22 +2240,22 @@
       <c r="C18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -2263,22 +2265,22 @@
       <c r="C19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>58</v>
       </c>
@@ -2288,22 +2290,22 @@
       <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
@@ -2313,22 +2315,22 @@
       <c r="C21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>64</v>
       </c>
@@ -2338,22 +2340,22 @@
       <c r="C22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -2363,22 +2365,22 @@
       <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
@@ -2388,22 +2390,22 @@
       <c r="C24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>73</v>
       </c>
@@ -2413,22 +2415,22 @@
       <c r="C25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>76</v>
       </c>
@@ -2438,23 +2440,23 @@
       <c r="C26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2463,22 +2465,22 @@
       <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>82</v>
       </c>
@@ -2488,22 +2490,22 @@
       <c r="C28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>85</v>
       </c>
@@ -2513,22 +2515,22 @@
       <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>88</v>
       </c>
@@ -2538,22 +2540,22 @@
       <c r="C30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>91</v>
       </c>
@@ -2563,22 +2565,22 @@
       <c r="C31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>94</v>
       </c>
@@ -2588,22 +2590,22 @@
       <c r="C32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -2613,15 +2615,15 @@
       <c r="C33" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -2631,15 +2633,15 @@
       <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2649,15 +2651,15 @@
       <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2667,15 +2669,15 @@
       <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2685,15 +2687,15 @@
       <c r="C37" t="s">
         <v>111</v>
       </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2703,15 +2705,15 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2721,15 +2723,15 @@
       <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -2739,15 +2741,15 @@
       <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -2757,15 +2759,15 @@
       <c r="C41" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -2775,15 +2777,15 @@
       <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -2793,15 +2795,15 @@
       <c r="C43" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -2811,15 +2813,15 @@
       <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -2829,15 +2831,15 @@
       <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2892,7 +2894,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -2925,7 +2927,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -2947,7 +2949,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -2980,7 +2982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -3002,7 +3004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -3024,7 +3026,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -3046,7 +3048,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -3057,7 +3059,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>199</v>
       </c>
@@ -3079,7 +3081,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -3156,7 +3158,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>226</v>
       </c>
@@ -3178,7 +3180,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -3200,7 +3202,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -3222,7 +3224,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>244</v>
       </c>
@@ -3244,7 +3246,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>247</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>256</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>259</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -3332,7 +3334,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>280</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>289</v>
       </c>
@@ -3409,7 +3411,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>292</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>298</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>301</v>
       </c>
@@ -3453,7 +3455,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>304</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>310</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>313</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>316</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>328</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>331</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>334</v>
       </c>
@@ -3574,7 +3576,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>337</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>340</v>
       </c>
@@ -3596,7 +3598,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>343</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>346</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>349</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>352</v>
       </c>
@@ -3640,7 +3642,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>355</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>358</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>361</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>364</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>367</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>370</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>376</v>
       </c>
@@ -3728,7 +3730,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>379</v>
       </c>
@@ -3739,7 +3741,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>382</v>
       </c>
@@ -3750,7 +3752,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>385</v>
       </c>
@@ -3761,130 +3763,122 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C140" s="7" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="K1:Q3"/>
@@ -3900,32 +3894,40 @@
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project/Assets/LocalizationDB.xlsx
+++ b/Project/Assets/LocalizationDB.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="452">
   <si>
     <t>id</t>
   </si>
@@ -1255,13 +1255,133 @@
   </si>
   <si>
     <t>Resource factor</t>
+  </si>
+  <si>
+    <t>#lbl_settings_text</t>
+  </si>
+  <si>
+    <t>Select optimal settings and click "Accept"</t>
+  </si>
+  <si>
+    <t>Выбрав оптимальные настройки нажмите кнопку "Применить"</t>
+  </si>
+  <si>
+    <t>#lbl_settings</t>
+  </si>
+  <si>
+    <t>#btn_accept</t>
+  </si>
+  <si>
+    <t>#btn_cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Принять </t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>#btn_settings_general</t>
+  </si>
+  <si>
+    <t>Общее</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>#btn_settings_video</t>
+  </si>
+  <si>
+    <t>Видео</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>#btn_settings_controller</t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>#btn_settings_sound</t>
+  </si>
+  <si>
+    <t>Звук</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>#lbl_language</t>
+  </si>
+  <si>
+    <t>Сброс</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>BRIGHTNESS</t>
+  </si>
+  <si>
+    <t>#lbl_brightness</t>
+  </si>
+  <si>
+    <t>ЯРКОСТЬ</t>
+  </si>
+  <si>
+    <t>V-SYNC</t>
+  </si>
+  <si>
+    <t>#lbl_v_sync</t>
+  </si>
+  <si>
+    <t>#lbl_graphics_quality</t>
+  </si>
+  <si>
+    <t>GRAPHICS QUALITY</t>
+  </si>
+  <si>
+    <t>ЯЗЫК</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>ВЕРТИКАЛЬНАЯ СИНХРОНИЗАЦИЯ</t>
+  </si>
+  <si>
+    <t>КАЧЕСТВО ГРАФИКИ</t>
+  </si>
+  <si>
+    <t>#lbl_resolution</t>
+  </si>
+  <si>
+    <t>#lbl_window_mode</t>
+  </si>
+  <si>
+    <t>РАЗРЕШЕНИЕ</t>
+  </si>
+  <si>
+    <t>РЕЖИМ</t>
+  </si>
+  <si>
+    <t>WINDOW MODE</t>
+  </si>
+  <si>
+    <t>RESOLUTION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1405,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1420,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,9 +1564,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1478,6 +1600,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1783,16 +1911,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="3" width="56.5703125" customWidth="1"/>
     <col min="4" max="4" width="75.28515625" customWidth="1"/>
     <col min="5" max="9" width="56.5703125" hidden="1" customWidth="1"/>
@@ -1801,74 +1929,74 @@
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="11"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1878,24 +2006,24 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1905,24 +2033,24 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1932,24 +2060,24 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>122</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1959,24 +2087,24 @@
       <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -1986,24 +2114,24 @@
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -2013,24 +2141,24 @@
       <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -2040,22 +2168,22 @@
       <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -2065,22 +2193,22 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -2090,22 +2218,22 @@
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
@@ -2115,22 +2243,22 @@
       <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -2140,22 +2268,22 @@
       <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -2165,22 +2293,22 @@
       <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -2190,22 +2318,22 @@
       <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -2215,22 +2343,22 @@
       <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -2240,22 +2368,22 @@
       <c r="C18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -2265,22 +2393,22 @@
       <c r="C19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
         <v>58</v>
       </c>
@@ -2290,22 +2418,22 @@
       <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
@@ -2315,22 +2443,22 @@
       <c r="C21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
         <v>64</v>
       </c>
@@ -2340,22 +2468,22 @@
       <c r="C22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -2365,22 +2493,22 @@
       <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
@@ -2390,22 +2518,22 @@
       <c r="C24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
         <v>73</v>
       </c>
@@ -2415,22 +2543,22 @@
       <c r="C25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
         <v>76</v>
       </c>
@@ -2440,22 +2568,22 @@
       <c r="C26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="9" t="s">
         <v>79</v>
       </c>
@@ -2465,22 +2593,22 @@
       <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
         <v>82</v>
       </c>
@@ -2490,22 +2618,22 @@
       <c r="C28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
         <v>85</v>
       </c>
@@ -2515,22 +2643,22 @@
       <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
         <v>88</v>
       </c>
@@ -2540,22 +2668,22 @@
       <c r="C30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
         <v>91</v>
       </c>
@@ -2565,22 +2693,22 @@
       <c r="C31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
         <v>94</v>
       </c>
@@ -2590,22 +2718,22 @@
       <c r="C32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -2615,15 +2743,15 @@
       <c r="C33" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -2633,15 +2761,15 @@
       <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2651,15 +2779,15 @@
       <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2669,15 +2797,15 @@
       <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2687,15 +2815,15 @@
       <c r="C37" t="s">
         <v>111</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2705,15 +2833,15 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2723,15 +2851,15 @@
       <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -2741,15 +2869,15 @@
       <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -2759,15 +2887,15 @@
       <c r="C41" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -2777,15 +2905,15 @@
       <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -2795,15 +2923,15 @@
       <c r="C43" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -2813,15 +2941,15 @@
       <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -2831,15 +2959,15 @@
       <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -2850,7 +2978,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -2861,7 +2989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -2872,7 +3000,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -2883,7 +3011,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2894,7 +3022,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -2905,7 +3033,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -2916,7 +3044,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -2927,7 +3055,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -2938,7 +3066,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -2949,7 +3077,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -2960,7 +3088,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -2971,7 +3099,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -2982,7 +3110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -2993,7 +3121,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -3004,7 +3132,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -3015,7 +3143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -3026,7 +3154,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -3037,7 +3165,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -3048,7 +3176,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -3059,7 +3187,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -3070,7 +3198,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
         <v>199</v>
       </c>
@@ -3081,7 +3209,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -3092,7 +3220,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -3103,7 +3231,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -3114,7 +3242,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -3125,7 +3253,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -3136,7 +3264,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -3147,7 +3275,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -3158,7 +3286,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -3169,7 +3297,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>226</v>
       </c>
@@ -3180,7 +3308,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -3191,7 +3319,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -3202,7 +3330,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -3213,7 +3341,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -3224,7 +3352,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -3235,7 +3363,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>244</v>
       </c>
@@ -3246,7 +3374,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
         <v>247</v>
       </c>
@@ -3257,7 +3385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -3268,7 +3396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -3279,7 +3407,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>256</v>
       </c>
@@ -3290,7 +3418,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>259</v>
       </c>
@@ -3301,7 +3429,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -3312,7 +3440,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -3323,7 +3451,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -3334,7 +3462,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -3345,7 +3473,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -3356,7 +3484,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -3367,7 +3495,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>280</v>
       </c>
@@ -3378,7 +3506,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -3389,7 +3517,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -3400,7 +3528,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>289</v>
       </c>
@@ -3411,7 +3539,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>292</v>
       </c>
@@ -3422,7 +3550,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -3433,7 +3561,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>298</v>
       </c>
@@ -3444,7 +3572,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>301</v>
       </c>
@@ -3455,7 +3583,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>304</v>
       </c>
@@ -3466,7 +3594,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -3477,7 +3605,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>310</v>
       </c>
@@ -3488,7 +3616,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>313</v>
       </c>
@@ -3499,7 +3627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>316</v>
       </c>
@@ -3510,7 +3638,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -3521,7 +3649,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -3532,7 +3660,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -3543,7 +3671,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>328</v>
       </c>
@@ -3554,7 +3682,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>331</v>
       </c>
@@ -3565,7 +3693,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>334</v>
       </c>
@@ -3576,7 +3704,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>337</v>
       </c>
@@ -3587,7 +3715,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>340</v>
       </c>
@@ -3598,7 +3726,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>343</v>
       </c>
@@ -3609,7 +3737,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>346</v>
       </c>
@@ -3620,7 +3748,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>349</v>
       </c>
@@ -3631,7 +3759,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>352</v>
       </c>
@@ -3642,7 +3770,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>355</v>
       </c>
@@ -3653,7 +3781,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>358</v>
       </c>
@@ -3664,7 +3792,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>361</v>
       </c>
@@ -3675,7 +3803,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>364</v>
       </c>
@@ -3686,7 +3814,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>367</v>
       </c>
@@ -3697,7 +3825,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>370</v>
       </c>
@@ -3708,7 +3836,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -3719,7 +3847,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>376</v>
       </c>
@@ -3730,7 +3858,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>379</v>
       </c>
@@ -3741,7 +3869,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>382</v>
       </c>
@@ -3752,7 +3880,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>385</v>
       </c>
@@ -3763,7 +3891,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
         <v>388</v>
       </c>
@@ -3774,7 +3902,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="7" t="s">
         <v>391</v>
       </c>
@@ -3785,7 +3913,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="7" t="s">
         <v>394</v>
       </c>
@@ -3796,7 +3924,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="7" t="s">
         <v>397</v>
       </c>
@@ -3807,7 +3935,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="7" t="s">
         <v>400</v>
       </c>
@@ -3818,7 +3946,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="7" t="s">
         <v>403</v>
       </c>
@@ -3829,7 +3957,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="7" t="s">
         <v>406</v>
       </c>
@@ -3840,7 +3968,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="7" t="s">
         <v>409</v>
       </c>
@@ -3851,34 +3979,196 @@
         <v>411</v>
       </c>
     </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A138" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B141" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>423</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>426</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>429</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>432</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>436</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C147" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>439</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C148" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>440</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>446</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>447</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C151" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K22:Q22"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="K1:Q3"/>
@@ -3894,40 +4184,32 @@
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project/Assets/LocalizationDB.xlsx
+++ b/Project/Assets/LocalizationDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="476">
   <si>
     <t>id</t>
   </si>
@@ -1375,6 +1375,78 @@
   </si>
   <si>
     <t>RESOLUTION</t>
+  </si>
+  <si>
+    <t>Друг, ты дейсвительно хочешь покинуть игру?</t>
+  </si>
+  <si>
+    <t>Friend, do you really want to exit the game?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sure</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Ой, всё</t>
+  </si>
+  <si>
+    <t>#lbl_exit_quation</t>
+  </si>
+  <si>
+    <t>#btn_exit_no</t>
+  </si>
+  <si>
+    <t>#btn_exit_yes</t>
+  </si>
+  <si>
+    <t>CREATORS</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>#lbl_credits_creators</t>
+  </si>
+  <si>
+    <t>#lbl_credits_art</t>
+  </si>
+  <si>
+    <t>#lbl_credits_code</t>
+  </si>
+  <si>
+    <t>СОЗДАТЕЛИ</t>
+  </si>
+  <si>
+    <t>ДИЗАЙН И ВЁРСТКА</t>
+  </si>
+  <si>
+    <t>ПРОГРАММНЫЙ КОД</t>
+  </si>
+  <si>
+    <t>#lbl_creator_name_proxor</t>
+  </si>
+  <si>
+    <t>#lbl_creator_name_vart</t>
+  </si>
+  <si>
+    <t>Dmitry Shkatula</t>
+  </si>
+  <si>
+    <t>Andrey Vartanyan</t>
+  </si>
+  <si>
+    <t>Дмитрий Юрьевич Шкатула</t>
+  </si>
+  <si>
+    <t>Андрей Сергеевич Вартанян</t>
   </si>
 </sst>
 </file>
@@ -1911,15 +1983,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q151"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="3" width="56.5703125" customWidth="1"/>
     <col min="4" max="4" width="75.28515625" customWidth="1"/>
@@ -4131,6 +4203,94 @@
       </c>
       <c r="C151" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>458</v>
+      </c>
+      <c r="B152" t="s">
+        <v>452</v>
+      </c>
+      <c r="C152" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>459</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>460</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C154" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>464</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C155" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>465</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C156" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>466</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C157" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>470</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C158" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>471</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C159" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Assets/LocalizationDB.xlsx
+++ b/Project/Assets/LocalizationDB.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ARN\trunk\Project\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1452,7 +1447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1617,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,6 +1631,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1672,12 +1676,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1982,11 +1980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2002,71 +2000,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="11"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
@@ -2078,22 +2076,22 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
@@ -2105,22 +2103,22 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
@@ -2132,22 +2130,22 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="13">
         <v>122</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
@@ -2159,22 +2157,22 @@
       <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
@@ -2186,22 +2184,22 @@
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -2213,22 +2211,22 @@
       <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
@@ -2240,23 +2238,23 @@
       <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2265,20 +2263,20 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
@@ -2290,20 +2288,20 @@
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
@@ -2315,20 +2313,20 @@
       <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
@@ -2340,20 +2338,20 @@
       <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
@@ -2365,20 +2363,20 @@
       <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
@@ -2390,20 +2388,20 @@
       <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
@@ -2415,20 +2413,20 @@
       <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
@@ -2440,20 +2438,20 @@
       <c r="C18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
@@ -2465,20 +2463,20 @@
       <c r="C19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
@@ -2490,20 +2488,20 @@
       <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
@@ -2515,20 +2513,20 @@
       <c r="C21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
@@ -2540,20 +2538,20 @@
       <c r="C22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="5" t="s">
@@ -2565,20 +2563,20 @@
       <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
@@ -2590,20 +2588,20 @@
       <c r="C24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
@@ -2615,20 +2613,20 @@
       <c r="C25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
@@ -2640,20 +2638,20 @@
       <c r="C26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="9" t="s">
@@ -2665,20 +2663,20 @@
       <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
@@ -2690,20 +2688,20 @@
       <c r="C28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
@@ -2715,20 +2713,20 @@
       <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
@@ -2740,20 +2738,20 @@
       <c r="C30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
@@ -2765,20 +2763,20 @@
       <c r="C31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
@@ -2790,20 +2788,20 @@
       <c r="C32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
@@ -2815,13 +2813,13 @@
       <c r="C33" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
@@ -2833,13 +2831,13 @@
       <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
@@ -2851,13 +2849,13 @@
       <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
@@ -2869,13 +2867,13 @@
       <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
@@ -2887,13 +2885,13 @@
       <c r="C37" t="s">
         <v>111</v>
       </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
@@ -2905,13 +2903,13 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
@@ -2923,13 +2921,13 @@
       <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
@@ -2941,13 +2939,13 @@
       <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
@@ -2959,13 +2957,13 @@
       <c r="C41" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
@@ -2977,13 +2975,13 @@
       <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
@@ -2995,13 +2993,13 @@
       <c r="C43" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
@@ -3013,13 +3011,13 @@
       <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
@@ -3031,13 +3029,13 @@
       <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
@@ -4080,7 +4078,7 @@
       <c r="B140" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="11" t="s">
         <v>434</v>
       </c>
     </row>
@@ -4295,40 +4293,32 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="K1:Q3"/>
@@ -4344,32 +4334,40 @@
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project/Assets/LocalizationDB.xlsx
+++ b/Project/Assets/LocalizationDB.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ARN\trunk\Project\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="485">
   <si>
     <t>id</t>
   </si>
@@ -1442,12 +1447,39 @@
   </si>
   <si>
     <t>Андрей Сергеевич Вартанян</t>
+  </si>
+  <si>
+    <t>TYPE OF GAME:</t>
+  </si>
+  <si>
+    <t>#lbl_type_of_game</t>
+  </si>
+  <si>
+    <t>#lbl_singleplayer</t>
+  </si>
+  <si>
+    <t>#lbl_miltiplayer</t>
+  </si>
+  <si>
+    <t>МУЛЬТИПЛЕЕР</t>
+  </si>
+  <si>
+    <t>SINGLEPLAYER</t>
+  </si>
+  <si>
+    <t>MULTIPLAYER</t>
+  </si>
+  <si>
+    <t>ТИП ИГРЫ:</t>
+  </si>
+  <si>
+    <t>ОДИНОЧНАЯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1641,9 +1673,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1676,6 +1705,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1980,11 +2012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2000,71 +2032,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="14"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
@@ -2076,22 +2108,22 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
@@ -2103,22 +2135,22 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
@@ -2130,22 +2162,22 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>122</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
@@ -2157,22 +2189,22 @@
       <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
@@ -2184,22 +2216,22 @@
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -2211,22 +2243,22 @@
       <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
@@ -2238,20 +2270,20 @@
       <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="10" t="s">
@@ -2263,20 +2295,20 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
@@ -2288,20 +2320,20 @@
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
@@ -2313,20 +2345,20 @@
       <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
@@ -2338,20 +2370,20 @@
       <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
@@ -2363,20 +2395,20 @@
       <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
@@ -2388,20 +2420,20 @@
       <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
@@ -2413,20 +2445,20 @@
       <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
@@ -2438,20 +2470,20 @@
       <c r="C18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
@@ -2463,20 +2495,20 @@
       <c r="C19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
@@ -2488,20 +2520,20 @@
       <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
@@ -2513,20 +2545,20 @@
       <c r="C21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
@@ -2538,20 +2570,20 @@
       <c r="C22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="5" t="s">
@@ -2563,20 +2595,20 @@
       <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
@@ -2588,20 +2620,20 @@
       <c r="C24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
@@ -2613,20 +2645,20 @@
       <c r="C25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
@@ -2638,20 +2670,20 @@
       <c r="C26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="9" t="s">
@@ -2663,20 +2695,20 @@
       <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
@@ -2688,20 +2720,20 @@
       <c r="C28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
@@ -2713,20 +2745,20 @@
       <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
@@ -2738,20 +2770,20 @@
       <c r="C30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
@@ -2763,20 +2795,20 @@
       <c r="C31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
@@ -2788,20 +2820,20 @@
       <c r="C32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
@@ -2813,13 +2845,13 @@
       <c r="C33" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
@@ -2831,13 +2863,13 @@
       <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
@@ -2849,13 +2881,13 @@
       <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
@@ -2867,13 +2899,13 @@
       <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
@@ -2885,13 +2917,13 @@
       <c r="C37" t="s">
         <v>111</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
@@ -2903,13 +2935,13 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
@@ -2921,13 +2953,13 @@
       <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
@@ -2939,13 +2971,13 @@
       <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
@@ -2957,13 +2989,13 @@
       <c r="C41" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
@@ -2975,13 +3007,13 @@
       <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
@@ -2993,13 +3025,13 @@
       <c r="C43" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
@@ -3011,13 +3043,13 @@
       <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
@@ -3029,13 +3061,13 @@
       <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
@@ -4291,34 +4323,75 @@
         <v>473</v>
       </c>
     </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>477</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C160" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>478</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C161" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" t="s">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K22:Q22"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="K1:Q3"/>
@@ -4334,40 +4407,32 @@
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
